--- a/tables/plot_ancova_means.xlsx
+++ b/tables/plot_ancova_means.xlsx
@@ -464,16 +464,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.7</v>
+        <v>15.3</v>
       </c>
       <c r="D2" t="n">
-        <v>29.7</v>
+        <v>-4.7</v>
       </c>
       <c r="E2" t="n">
-        <v>48.8</v>
+        <v>14.5</v>
       </c>
       <c r="F2" t="n">
-        <v>12.5</v>
+        <v>26.6</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -484,16 +484,16 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="R2" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -504,18 +504,18 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>51.7</v>
+        <v>63.6</v>
       </c>
       <c r="D3" t="n">
-        <v>62.7</v>
+        <v>39.6</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>4.06</v>
+        <v>3.16</v>
       </c>
       <c r="H3" t="n">
-        <v>9.06</v>
+        <v>7.16</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -524,16 +524,16 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="R3" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.68</v>
+        <v>-0.71</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.68</v>
+        <v>1.29</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>-3.18</v>
+        <v>-1.21</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.18</v>
+        <v>-0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.18</v>
+        <v>0.79</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.18</v>
+        <v>1.79</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="R4" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tables/plot_ancova_means.xlsx
+++ b/tables/plot_ancova_means.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">ancova_plot_mean_exp</t>
   </si>
   <si>
@@ -69,6 +75,12 @@
   </si>
   <si>
     <t xml:space="preserve">ancova_means_plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
 </sst>
 </file>
@@ -455,129 +467,153 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-4.7</v>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>14.5</v>
+        <v>44.8</v>
       </c>
       <c r="F2" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
+        <v>50.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40.9</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
+      <c r="O2"/>
+      <c r="P2"/>
       <c r="Q2" t="n">
-        <v>59</v>
+        <v>0.25</v>
       </c>
       <c r="R2" t="n">
-        <v>60</v>
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>65</v>
+      </c>
+      <c r="T2" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" t="n">
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" t="n">
         <v>0.15</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
-        <v>17</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15</v>
+      <c r="S3" t="n">
+        <v>77</v>
+      </c>
+      <c r="T3" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-4.67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5.67</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-0.21</v>
-      </c>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="K4" t="n">
-        <v>0.79</v>
+        <v>-5.17</v>
       </c>
       <c r="L4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
+        <v>-4.17</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-6.17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
       <c r="Q4" t="n">
-        <v>48</v>
+        <v>0.1</v>
       </c>
       <c r="R4" t="n">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>18</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tables/plot_ancova_means.xlsx
+++ b/tables/plot_ancova_means.xlsx
@@ -488,16 +488,16 @@
         <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>44.8</v>
+        <v>93.2</v>
       </c>
       <c r="F2" t="n">
-        <v>50.8</v>
+        <v>97.2</v>
       </c>
       <c r="G2" t="n">
-        <v>29.4</v>
+        <v>18.2</v>
       </c>
       <c r="H2" t="n">
-        <v>40.9</v>
+        <v>10.3</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -508,16 +508,16 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="T2" t="n">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -534,18 +534,18 @@
         <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>94.9</v>
+        <v>19.4</v>
       </c>
       <c r="F3" t="n">
-        <v>111.9</v>
+        <v>19.4</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="J3" t="n">
-        <v>7.2</v>
+        <v>7.58</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -554,16 +554,16 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="T3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -580,40 +580,40 @@
         <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.67</v>
+        <v>-3.47</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.67</v>
+        <v>-4.47</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>-5.17</v>
+        <v>-3.97</v>
       </c>
       <c r="L4" t="n">
-        <v>-4.17</v>
+        <v>-2.97</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.17</v>
+        <v>-4.97</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.17</v>
+        <v>-3.97</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/tables/plot_ancova_means.xlsx
+++ b/tables/plot_ancova_means.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -32,16 +32,28 @@
     <t xml:space="preserve">ancova_plot_mean_nexp</t>
   </si>
   <si>
-    <t xml:space="preserve">ancova_plot_mean_sd_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancova_plot_mean_sd_nexp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancova_plot_mean_se_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancova_plot_mean_se_nexp</t>
+    <t xml:space="preserve">ancova_plot_mean_sd_lo_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancova_plot_mean_sd_up_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancova_plot_mean_sd_lo_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancova_plot_mean_sd_up_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancova_plot_mean_se_lo_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancova_plot_mean_se_up_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancova_plot_mean_se_lo_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancova_plot_mean_se_up_nexp</t>
   </si>
   <si>
     <t xml:space="preserve">ancova_plot_mean_ci_lo_exp</t>
@@ -54,12 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">ancova_plot_mean_ci_up_nexp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancova_plot_ancova_mean_sd_pooled_crude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancova_plot_ancova_mean_sd_pooled_adj</t>
   </si>
   <si>
     <t xml:space="preserve">cov_outcome_r</t>
@@ -473,147 +479,167 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>93.2</v>
+        <v>101.2</v>
       </c>
       <c r="F2" t="n">
-        <v>97.2</v>
+        <v>98.9</v>
       </c>
       <c r="G2" t="n">
-        <v>18.2</v>
+        <v>85.33</v>
       </c>
       <c r="H2" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
+        <v>117.07</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>114.77</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2"/>
+      <c r="R2"/>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>0.15</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>61</v>
+      </c>
+      <c r="V2" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>19.4</v>
+        <v>5.94</v>
       </c>
       <c r="F3" t="n">
-        <v>19.4</v>
+        <v>5.81</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>0.0700000000000003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13.68</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3"/>
+      <c r="R3"/>
       <c r="S3" t="n">
-        <v>66</v>
+        <v>0.3</v>
       </c>
       <c r="T3" t="n">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>48</v>
+      </c>
+      <c r="V3" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.47</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.47</v>
+        <v>60</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="n">
-        <v>-3.97</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-4.97</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.97</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>45</v>
+      </c>
+      <c r="P4" t="n">
+        <v>55</v>
+      </c>
       <c r="Q4" t="n">
-        <v>0.15</v>
+        <v>55</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="S4" t="n">
-        <v>95</v>
+        <v>0.25</v>
       </c>
       <c r="T4" t="n">
-        <v>99</v>
+        <v>4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>27</v>
+      </c>
+      <c r="V4" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
